--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5140794432300511</v>
+        <v>0.6413660283590135</v>
       </c>
       <c r="D2">
-        <v>0.9342120836821564</v>
+        <v>0.9547186884386549</v>
       </c>
       <c r="E2">
-        <v>0.8935046749722984</v>
+        <v>0.9118127404151573</v>
       </c>
       <c r="F2">
-        <v>0.1013708627210037</v>
+        <v>0.1289416893904598</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5140794432300511</v>
+        <v>0.6413660283590135</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4472744683397534</v>
+        <v>0.4353446046275207</v>
       </c>
       <c r="E3">
-        <v>0.3441631891072121</v>
+        <v>0.2949445627359824</v>
       </c>
       <c r="F3">
-        <v>0.3296910699554874</v>
+        <v>0.4351323334701944</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9342120836821564</v>
+        <v>0.9547186884386549</v>
       </c>
       <c r="C4">
-        <v>0.4472744683397534</v>
+        <v>0.4353446046275207</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9654584851261876</v>
+        <v>0.9714403183110845</v>
       </c>
       <c r="F4">
-        <v>0.1510765631955189</v>
+        <v>0.2470400207514738</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8935046749722984</v>
+        <v>0.9118127404151573</v>
       </c>
       <c r="C5">
-        <v>0.3441631891072121</v>
+        <v>0.2949445627359824</v>
       </c>
       <c r="D5">
-        <v>0.9654584851261876</v>
+        <v>0.9714403183110845</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0651661292481045</v>
+        <v>0.1835358555734827</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1013708627210037</v>
+        <v>0.1289416893904598</v>
       </c>
       <c r="C6">
-        <v>0.3296910699554874</v>
+        <v>0.4351323334701944</v>
       </c>
       <c r="D6">
-        <v>0.1510765631955189</v>
+        <v>0.2470400207514738</v>
       </c>
       <c r="E6">
-        <v>0.0651661292481045</v>
+        <v>0.1835358555734827</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.6526604638247773</v>
+        <v>-0.472297189299867</v>
       </c>
       <c r="D2">
-        <v>0.08256101434330974</v>
+        <v>0.05743305881543417</v>
       </c>
       <c r="E2">
-        <v>0.1338945596821185</v>
+        <v>0.1120335421137764</v>
       </c>
       <c r="F2">
-        <v>-1.639292872559469</v>
+        <v>-1.577546623584738</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6526604638247773</v>
+        <v>0.472297189299867</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7601750738743199</v>
+        <v>0.7945828633713284</v>
       </c>
       <c r="E3">
-        <v>0.9462828830707055</v>
+        <v>1.072899315494204</v>
       </c>
       <c r="F3">
-        <v>-0.9750666723332269</v>
+        <v>-0.7949554796708516</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.08256101434330974</v>
+        <v>-0.05743305881543417</v>
       </c>
       <c r="C4">
-        <v>-0.7601750738743199</v>
+        <v>-0.7945828633713284</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04331243836419182</v>
+        <v>0.03621145594854015</v>
       </c>
       <c r="F4">
-        <v>-1.436503226951793</v>
+        <v>-1.18919573139237</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1338945596821185</v>
+        <v>-0.1120335421137764</v>
       </c>
       <c r="C5">
-        <v>-0.9462828830707055</v>
+        <v>-1.072899315494204</v>
       </c>
       <c r="D5">
-        <v>-0.04331243836419182</v>
+        <v>-0.03621145594854015</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.845527731417937</v>
+        <v>-1.37316458277484</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.639292872559469</v>
+        <v>1.577546623584738</v>
       </c>
       <c r="C6">
-        <v>0.9750666723332269</v>
+        <v>0.7949554796708516</v>
       </c>
       <c r="D6">
-        <v>1.436503226951793</v>
+        <v>1.18919573139237</v>
       </c>
       <c r="E6">
-        <v>1.845527731417937</v>
+        <v>1.37316458277484</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPMW_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.6413660283590135</v>
+        <v>0.8877439605935196</v>
       </c>
       <c r="D2">
-        <v>0.9547186884386549</v>
+        <v>0.8142179455049272</v>
       </c>
       <c r="E2">
-        <v>0.9118127404151573</v>
+        <v>0.173611381337357</v>
       </c>
       <c r="F2">
-        <v>0.1289416893904598</v>
+        <v>0.1913519742579122</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6413660283590135</v>
+        <v>0.8877439605935196</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.4353446046275207</v>
+        <v>0.6857657365100283</v>
       </c>
       <c r="E3">
-        <v>0.2949445627359824</v>
+        <v>0.3296022687656606</v>
       </c>
       <c r="F3">
-        <v>0.4351323334701944</v>
+        <v>0.3141607371968638</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9547186884386549</v>
+        <v>0.8142179455049272</v>
       </c>
       <c r="C4">
-        <v>0.4353446046275207</v>
+        <v>0.6857657365100283</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.9714403183110845</v>
+        <v>0.3003941166815527</v>
       </c>
       <c r="F4">
-        <v>0.2470400207514738</v>
+        <v>0.3322953162779083</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9118127404151573</v>
+        <v>0.173611381337357</v>
       </c>
       <c r="C5">
-        <v>0.2949445627359824</v>
+        <v>0.3296022687656606</v>
       </c>
       <c r="D5">
-        <v>0.9714403183110845</v>
+        <v>0.3003941166815527</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1835358555734827</v>
+        <v>0.6337556840408025</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1289416893904598</v>
+        <v>0.1913519742579122</v>
       </c>
       <c r="C6">
-        <v>0.4351323334701944</v>
+        <v>0.3141607371968638</v>
       </c>
       <c r="D6">
-        <v>0.2470400207514738</v>
+        <v>0.3322953162779083</v>
       </c>
       <c r="E6">
-        <v>0.1835358555734827</v>
+        <v>0.6337556840408025</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.472297189299867</v>
+        <v>0.142222179096007</v>
       </c>
       <c r="D2">
-        <v>0.05743305881543417</v>
+        <v>-0.236819431604351</v>
       </c>
       <c r="E2">
-        <v>0.1120335421137764</v>
+        <v>-1.389839521330605</v>
       </c>
       <c r="F2">
-        <v>-1.577546623584738</v>
+        <v>-1.333134507566701</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.472297189299867</v>
+        <v>-0.142222179096007</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7945828633713284</v>
+        <v>-0.4080906759988153</v>
       </c>
       <c r="E3">
-        <v>1.072899315494204</v>
+        <v>-0.9890981523550655</v>
       </c>
       <c r="F3">
-        <v>-0.7949554796708516</v>
+        <v>-1.021651205017314</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.05743305881543417</v>
+        <v>0.236819431604351</v>
       </c>
       <c r="C4">
-        <v>-0.7945828633713284</v>
+        <v>0.4080906759988153</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03621145594854015</v>
+        <v>-1.051613221886535</v>
       </c>
       <c r="F4">
-        <v>-1.18919573139237</v>
+        <v>-0.9835275689104684</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.1120335421137764</v>
+        <v>1.389839521330605</v>
       </c>
       <c r="C5">
-        <v>-1.072899315494204</v>
+        <v>0.9890981523550655</v>
       </c>
       <c r="D5">
-        <v>-0.03621145594854015</v>
+        <v>1.051613221886535</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.37316458277484</v>
+        <v>0.4807751824351827</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.577546623584738</v>
+        <v>1.333134507566701</v>
       </c>
       <c r="C6">
-        <v>0.7949554796708516</v>
+        <v>1.021651205017314</v>
       </c>
       <c r="D6">
-        <v>1.18919573139237</v>
+        <v>0.9835275689104684</v>
       </c>
       <c r="E6">
-        <v>1.37316458277484</v>
+        <v>-0.4807751824351827</v>
       </c>
       <c r="F6">
         <v>0</v>
